--- a/Stylized3.xlsx
+++ b/Stylized3.xlsx
@@ -3,10 +3,12 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11385" windowWidth="21600" xWindow="7200" yWindow="945"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -376,17 +378,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col customWidth="1" max="1" min="1" width="16.140625"/>
     <col bestFit="1" customWidth="1" max="2" min="2" width="16.5703125"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="23.28515625"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="10.140625"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="10.28515625"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="12.85546875"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="15.5703125"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="16.28515625"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="19"/>
     <col bestFit="1" customWidth="1" max="10" min="10" width="12"/>
+    <col bestFit="1" customWidth="1" max="13" min="13" width="14.140625"/>
     <col bestFit="1" customWidth="1" max="18" min="18" width="17.42578125"/>
     <col bestFit="1" customWidth="1" max="19" min="19" width="10.7109375"/>
   </cols>
@@ -574,7 +584,7 @@
       </c>
       <c r="R2" s="3" t="inlineStr">
         <is>
-          <t>ROMAN CATHOLIC</t>
+          <t>JEHOVAH</t>
         </is>
       </c>
       <c r="S2" s="4" t="n">
@@ -587,10 +597,182 @@
       </c>
       <c r="U2" s="3" t="n">
         <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>VAL CB-106688</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>GUINTO</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>RAYMOND</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P. </t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>FATHER</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>REYMUNDO GUINTO</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>METRO MANILA</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>VALENZUELA</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>VIENTE REALES</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>ST. PETER</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>82</v>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>MALE</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>16</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>ROMAN CATHOLIC</t>
+        </is>
+      </c>
+      <c r="S3" s="1" t="n">
+        <v>37589</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>VALENZUELA</t>
+        </is>
+      </c>
+      <c r="U3" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A10:A11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="17.42578125"/>
+  </cols>
+  <sheetData>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Level of Education</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>HIGHSCHOOL</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="3" min="3" width="16.5703125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="10.42578125"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" width="32"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" width="13.42578125"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>TYPE</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>SPONSORED TYPE</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>EMPLOYED</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>ARE YOU AWARE OF THE BENEFITS:</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>IF YES SPECIFY</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>
--- a/Stylized3.xlsx
+++ b/Stylized3.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11385" windowWidth="21600" xWindow="7200" yWindow="945"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11385" windowWidth="21600" xWindow="945" yWindow="1590"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -380,8 +380,8 @@
   </sheetPr>
   <dimension ref="A1:U3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -584,7 +584,7 @@
       </c>
       <c r="R2" s="3" t="inlineStr">
         <is>
-          <t>JEHOVAH</t>
+          <t>CUTE ANIME GIRLS</t>
         </is>
       </c>
       <c r="S2" s="4" t="n">
